--- a/SchedulingData/dynamic12/pso/scheduling2_14.xlsx
+++ b/SchedulingData/dynamic12/pso/scheduling2_14.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,40 +462,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>203.6</v>
+        <v>208.74</v>
       </c>
       <c r="D2" t="n">
-        <v>243.3</v>
+        <v>271.26</v>
       </c>
       <c r="E2" t="n">
-        <v>17.16</v>
+        <v>12.524</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>238.46</v>
+        <v>271.26</v>
       </c>
       <c r="D3" t="n">
-        <v>279.86</v>
+        <v>328.26</v>
       </c>
       <c r="E3" t="n">
-        <v>10.844</v>
+        <v>9.444000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -504,131 +504,131 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>243.3</v>
+        <v>235.52</v>
       </c>
       <c r="D4" t="n">
-        <v>300.6</v>
+        <v>310.42</v>
       </c>
       <c r="E4" t="n">
-        <v>14.04</v>
+        <v>15.108</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>218.96</v>
+        <v>223.66</v>
       </c>
       <c r="D5" t="n">
-        <v>293.86</v>
+        <v>281.06</v>
       </c>
       <c r="E5" t="n">
-        <v>14.264</v>
+        <v>13.024</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>208.38</v>
+        <v>231.66</v>
       </c>
       <c r="D6" t="n">
-        <v>269.82</v>
+        <v>292.66</v>
       </c>
       <c r="E6" t="n">
-        <v>13.688</v>
+        <v>15.824</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>269.82</v>
+        <v>223.4</v>
       </c>
       <c r="D7" t="n">
-        <v>304.88</v>
+        <v>266.94</v>
       </c>
       <c r="E7" t="n">
-        <v>11.312</v>
+        <v>11.976</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>293.86</v>
+        <v>266.94</v>
       </c>
       <c r="D8" t="n">
-        <v>362.5</v>
+        <v>310.58</v>
       </c>
       <c r="E8" t="n">
-        <v>11.04</v>
+        <v>8.752000000000001</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>304.88</v>
+        <v>227.6</v>
       </c>
       <c r="D9" t="n">
-        <v>366.98</v>
+        <v>281.46</v>
       </c>
       <c r="E9" t="n">
-        <v>8.231999999999999</v>
+        <v>13.984</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>269.6</v>
+        <v>281.46</v>
       </c>
       <c r="D10" t="n">
-        <v>324.88</v>
+        <v>336.66</v>
       </c>
       <c r="E10" t="n">
-        <v>12.112</v>
+        <v>11.064</v>
       </c>
     </row>
     <row r="11">
@@ -637,36 +637,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>279.86</v>
+        <v>336.66</v>
       </c>
       <c r="D11" t="n">
-        <v>341</v>
+        <v>372.16</v>
       </c>
       <c r="E11" t="n">
-        <v>6.84</v>
+        <v>8.644</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>362.5</v>
+        <v>310.58</v>
       </c>
       <c r="D12" t="n">
-        <v>398</v>
+        <v>372.18</v>
       </c>
       <c r="E12" t="n">
-        <v>8.619999999999999</v>
+        <v>6.192</v>
       </c>
     </row>
     <row r="13">
@@ -675,79 +675,79 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>300.6</v>
+        <v>310.42</v>
       </c>
       <c r="D13" t="n">
-        <v>363.9</v>
+        <v>356.96</v>
       </c>
       <c r="E13" t="n">
-        <v>9.84</v>
+        <v>12.084</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>204.04</v>
+        <v>292.66</v>
       </c>
       <c r="D14" t="n">
-        <v>261.94</v>
+        <v>337.46</v>
       </c>
       <c r="E14" t="n">
-        <v>12.056</v>
+        <v>11.984</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>366.98</v>
+        <v>281.06</v>
       </c>
       <c r="D15" t="n">
-        <v>401.6</v>
+        <v>345.42</v>
       </c>
       <c r="E15" t="n">
-        <v>5.9</v>
+        <v>8.208</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>324.88</v>
+        <v>372.16</v>
       </c>
       <c r="D16" t="n">
-        <v>360.98</v>
+        <v>433.86</v>
       </c>
       <c r="E16" t="n">
-        <v>9.632</v>
+        <v>5.564</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -755,32 +755,32 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>360.98</v>
+        <v>433.86</v>
       </c>
       <c r="D17" t="n">
-        <v>413.78</v>
+        <v>521.26</v>
       </c>
       <c r="E17" t="n">
-        <v>7.472</v>
+        <v>3.404</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>363.9</v>
+        <v>345.42</v>
       </c>
       <c r="D18" t="n">
-        <v>426</v>
+        <v>391</v>
       </c>
       <c r="E18" t="n">
-        <v>6.76</v>
+        <v>5.28</v>
       </c>
     </row>
     <row r="19">
@@ -789,36 +789,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>398</v>
+        <v>337.46</v>
       </c>
       <c r="D19" t="n">
-        <v>474.5</v>
+        <v>372.52</v>
       </c>
       <c r="E19" t="n">
-        <v>6.06</v>
+        <v>9.608000000000001</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>413.78</v>
+        <v>328.26</v>
       </c>
       <c r="D20" t="n">
-        <v>481.18</v>
+        <v>370.76</v>
       </c>
       <c r="E20" t="n">
-        <v>5.312</v>
+        <v>6.324</v>
       </c>
     </row>
     <row r="21">
@@ -827,74 +827,74 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>261.94</v>
+        <v>372.18</v>
       </c>
       <c r="D21" t="n">
-        <v>329.14</v>
+        <v>419.28</v>
       </c>
       <c r="E21" t="n">
-        <v>8.976000000000001</v>
+        <v>3.112</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>401.6</v>
+        <v>356.96</v>
       </c>
       <c r="D22" t="n">
-        <v>450.84</v>
+        <v>411.28</v>
       </c>
       <c r="E22" t="n">
-        <v>2.596</v>
+        <v>9.752000000000001</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>426</v>
+        <v>370.76</v>
       </c>
       <c r="D23" t="n">
-        <v>480.02</v>
+        <v>416.88</v>
       </c>
       <c r="E23" t="n">
-        <v>3.988</v>
+        <v>2.852</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>341</v>
+        <v>372.52</v>
       </c>
       <c r="D24" t="n">
-        <v>402.44</v>
+        <v>446.28</v>
       </c>
       <c r="E24" t="n">
-        <v>3.816</v>
+        <v>5.812</v>
       </c>
     </row>
     <row r="25">
@@ -903,74 +903,55 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>481.18</v>
+        <v>391</v>
       </c>
       <c r="D25" t="n">
-        <v>515.8</v>
+        <v>457.82</v>
       </c>
       <c r="E25" t="n">
-        <v>2.98</v>
+        <v>2.208</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>402.44</v>
+        <v>446.28</v>
       </c>
       <c r="D26" t="n">
-        <v>469.74</v>
+        <v>515.6</v>
       </c>
       <c r="E26" t="n">
-        <v>0.176</v>
+        <v>3.48</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>469.74</v>
+        <v>411.28</v>
       </c>
       <c r="D27" t="n">
-        <v>546.29</v>
+        <v>460.2</v>
       </c>
       <c r="E27" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>4</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>pond8</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>329.14</v>
-      </c>
-      <c r="D28" t="n">
-        <v>377.64</v>
-      </c>
-      <c r="E28" t="n">
-        <v>5.256</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
